--- a/TestFirefox/缺陷报告模板.xlsx
+++ b/TestFirefox/缺陷报告模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA6A973-3B64-4F55-A728-EFCD6A69B60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E815C-43CE-43C8-8EB6-451FE1AF34DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
   <si>
     <t>项目名称：</t>
   </si>
@@ -201,12 +201,383 @@
     <t>Video-1.webm pic-1.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>V8 基准套件运行缓慢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>riscv的V8 基准套件运行缓慢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能效率</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-17G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">启动 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FireFox ，打开测试用例</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/A</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数比较</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于没有对照的qemu的x86环境，该测试结论将不可信。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊家辉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体机分数9.17k，Vbox虚拟机（Ubuntu 22.04 LTS）8.28k，qemu 39分。该成绩足以怀疑 V8 引擎在 RISCV64 上的实现有所问题（或者没有优化）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-08-05T18:20+8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic-4.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TB00003</t>
+  </si>
+  <si>
+    <t>TC00003</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-18G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>2022-08-05T18:20+9</t>
+  </si>
+  <si>
+    <t>TB00004</t>
+  </si>
+  <si>
+    <t>TC00004</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-19G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>TB00005</t>
+  </si>
+  <si>
+    <t>TC00005</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-20G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>TB00006</t>
+  </si>
+  <si>
+    <t>TC00006</t>
+  </si>
+  <si>
+    <t>RISC-V 64  CPU核数：8
+内存：8G
+硬盘容量：10.7G-21G  QEMU虚拟机</t>
+  </si>
+  <si>
+    <t>TB00007</t>
+  </si>
+  <si>
+    <t>TC00007</t>
+  </si>
+  <si>
+    <t>TB00008</t>
+  </si>
+  <si>
+    <t>TC00008</t>
+  </si>
+  <si>
+    <t>TB00009</t>
+  </si>
+  <si>
+    <t>TC00009</t>
+  </si>
+  <si>
+    <t>TB00010</t>
+  </si>
+  <si>
+    <t>TC00010</t>
+  </si>
+  <si>
+    <t>TB00011</t>
+  </si>
+  <si>
+    <t>TC00011</t>
+  </si>
+  <si>
+    <t>TB00012</t>
+  </si>
+  <si>
+    <t>TC00012</t>
+  </si>
+  <si>
+    <t>TB00013</t>
+  </si>
+  <si>
+    <t>TC00013</t>
+  </si>
+  <si>
+    <t>TB00014</t>
+  </si>
+  <si>
+    <t>TC00014</t>
+  </si>
+  <si>
+    <t>TB00015</t>
+  </si>
+  <si>
+    <t>TC00015</t>
+  </si>
+  <si>
+    <t>快捷方式编辑选项位置错位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷方式选项下拉菜单位置错位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>易用性</t>
+  </si>
+  <si>
+    <r>
+      <t>启动 FireFox ，运行指定的操作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将一行调整为两行</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉菜单在（条目下方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在屏幕左上角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>无法保存网页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存的网页打不开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存网页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够打开网页，显示正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全无法打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>部分语言是乱码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改语言处部分语言是方块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动 FireFox ，运行指定的操作，将 English(US) 修改为简体中文。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常显示各国语言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Firefox 小工具截图无法工作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图崩溃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠性</t>
+  </si>
+  <si>
+    <t>点击截图小工具并保存部分页码和全部页面并下载，用Firefox打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩溃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Video-22.webm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +606,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -274,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -308,6 +685,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -804,7 +1184,7 @@
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" ht="175.5" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>22</v>
@@ -812,8 +1192,428 @@
       <c r="C5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="9"/>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="81" x14ac:dyDescent="0.15">
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:R5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -823,17 +1623,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F1048576 F3:F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F4 F19:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"致命,严重,一般,轻微,建议"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1048576 G3:G4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G13 G19:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1048576 H3:H4" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"功能性,兼容性,信息安全性,可靠性,易用性,性能效率,可移植性,维护性,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestFirefox/缺陷报告模板.xlsx
+++ b/TestFirefox/缺陷报告模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7E815C-43CE-43C8-8EB6-451FE1AF34DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA01339B-1B4D-49D4-ABA8-2D9DDFBAC849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -996,7 +996,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/TestFirefox/缺陷报告模板.xlsx
+++ b/TestFirefox/缺陷报告模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实习\Work-PLCT\TestFirefox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLCT\Work-PLCT\TestFirefox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA01339B-1B4D-49D4-ABA8-2D9DDFBAC849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC979DB-99BB-4EE9-9F0E-53851913247C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>项目名称：</t>
   </si>
@@ -321,60 +321,6 @@
     <t>RISC-V 64  CPU核数：8
 内存：8G
 硬盘容量：10.7G-21G  QEMU虚拟机</t>
-  </si>
-  <si>
-    <t>TB00007</t>
-  </si>
-  <si>
-    <t>TC00007</t>
-  </si>
-  <si>
-    <t>TB00008</t>
-  </si>
-  <si>
-    <t>TC00008</t>
-  </si>
-  <si>
-    <t>TB00009</t>
-  </si>
-  <si>
-    <t>TC00009</t>
-  </si>
-  <si>
-    <t>TB00010</t>
-  </si>
-  <si>
-    <t>TC00010</t>
-  </si>
-  <si>
-    <t>TB00011</t>
-  </si>
-  <si>
-    <t>TC00011</t>
-  </si>
-  <si>
-    <t>TB00012</t>
-  </si>
-  <si>
-    <t>TC00012</t>
-  </si>
-  <si>
-    <t>TB00013</t>
-  </si>
-  <si>
-    <t>TC00013</t>
-  </si>
-  <si>
-    <t>TB00014</t>
-  </si>
-  <si>
-    <t>TC00014</t>
-  </si>
-  <si>
-    <t>TB00015</t>
-  </si>
-  <si>
-    <t>TC00015</t>
   </si>
   <si>
     <t>快捷方式编辑选项位置错位</t>
@@ -680,14 +626,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1024,55 +970,55 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -1244,16 +1190,16 @@
         <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>82</v>
+        <v>63</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>27</v>
@@ -1262,14 +1208,14 @@
         <v>52</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="O6" s="9"/>
       <c r="P6" s="9" t="s">
@@ -1279,7 +1225,7 @@
         <v>53</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="81" x14ac:dyDescent="0.15">
@@ -1289,11 +1235,11 @@
       <c r="C7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>90</v>
+      <c r="D7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>36</v>
@@ -1308,14 +1254,14 @@
         <v>56</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9" t="s">
@@ -1323,7 +1269,7 @@
       </c>
       <c r="Q7" s="9"/>
       <c r="R7" s="9" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="81" x14ac:dyDescent="0.15">
@@ -1333,11 +1279,11 @@
       <c r="C8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>96</v>
+      <c r="D8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -1352,14 +1298,14 @@
         <v>59</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9" t="s">
@@ -1367,7 +1313,7 @@
       </c>
       <c r="Q8" s="9"/>
       <c r="R8" s="9" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="81" x14ac:dyDescent="0.15">
@@ -1378,16 +1324,16 @@
         <v>61</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>102</v>
+        <v>83</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>27</v>
@@ -1395,15 +1341,15 @@
       <c r="J9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>104</v>
+      <c r="K9" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9" t="s">
@@ -1411,209 +1357,8 @@
       </c>
       <c r="Q9" s="9"/>
       <c r="R9" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B15" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:R5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1623,10 +1368,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F4 F19:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F4 F10:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"致命,严重,一般,轻微,建议"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G13 G19:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
